--- a/horarios.xlsx
+++ b/horarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1df193be93ba33cb/____SI_faculdade/__semestre-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="11_AD4D361C20488DEA4E38A0835C995D3E5BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E6FEE3B-680F-4059-BAEA-26784709E143}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="11_AD4D361C20488DEA4E38A0835C995D3E5BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3580D6D5-929D-4031-A5BD-94C092F74A3E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Programa de Extensão Universitária Integrado com ADS</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Professores</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>fabiana.rodrigues2@metodista.br</t>
   </si>
 </sst>
 </file>
@@ -489,203 +495,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="3"/>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="5">
         <v>12</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -694,25 +704,25 @@
       <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7">
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -721,22 +731,25 @@
       <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8">
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -744,5 +757,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>